--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N2">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O2">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P2">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q2">
-        <v>2.446879602834333</v>
+        <v>2.826275343126334</v>
       </c>
       <c r="R2">
-        <v>14.681277617006</v>
+        <v>16.957652058758</v>
       </c>
       <c r="S2">
-        <v>9.693590876110282E-05</v>
+        <v>8.441129550311314E-05</v>
       </c>
       <c r="T2">
-        <v>6.463155358823599E-05</v>
+        <v>5.631188586814032E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H3">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I3">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J3">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q3">
-        <v>0.997975309203889</v>
+        <v>1.445588867674445</v>
       </c>
       <c r="R3">
-        <v>8.981777782835001</v>
+        <v>13.01029980907</v>
       </c>
       <c r="S3">
-        <v>3.953592297993068E-05</v>
+        <v>4.317485533815657E-05</v>
       </c>
       <c r="T3">
-        <v>3.954058136033752E-05</v>
+        <v>4.320377110109764E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H4">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I4">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J4">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N4">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O4">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P4">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q4">
-        <v>4012.311318214072</v>
+        <v>13766.85077494823</v>
       </c>
       <c r="R4">
-        <v>36110.80186392665</v>
+        <v>123901.6569745341</v>
       </c>
       <c r="S4">
-        <v>0.1589522604271235</v>
+        <v>0.4111693192730347</v>
       </c>
       <c r="T4">
-        <v>0.1589709892195681</v>
+        <v>0.4114446942446848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H5">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I5">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J5">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N5">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O5">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P5">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q5">
-        <v>0.8274385210996668</v>
+        <v>4.347143583817334</v>
       </c>
       <c r="R5">
-        <v>4.964631126598</v>
+        <v>26.08286150290401</v>
       </c>
       <c r="S5">
-        <v>3.277991483268321E-05</v>
+        <v>0.0001298344913705971</v>
       </c>
       <c r="T5">
-        <v>2.185585145075266E-05</v>
+        <v>8.661429748509748E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H6">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I6">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J6">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N6">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O6">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P6">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q6">
-        <v>9.529914898408666</v>
+        <v>1131.548418946137</v>
       </c>
       <c r="R6">
-        <v>85.76923408567799</v>
+        <v>10183.93577051524</v>
       </c>
       <c r="S6">
-        <v>0.0003775383799117649</v>
+        <v>0.03379552816750217</v>
       </c>
       <c r="T6">
-        <v>0.0003775828639470233</v>
+        <v>0.03381816225563763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H7">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I7">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J7">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N7">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O7">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P7">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q7">
-        <v>5238.082100255227</v>
+        <v>2169.610091241092</v>
       </c>
       <c r="R7">
-        <v>47142.73890229704</v>
+        <v>19526.49082116982</v>
       </c>
       <c r="S7">
-        <v>0.207512559247029</v>
+        <v>0.06479892307155925</v>
       </c>
       <c r="T7">
-        <v>0.2075370097307236</v>
+        <v>0.06484232125514779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H8">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I8">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J8">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N8">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O8">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P8">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q8">
-        <v>0.01993143519266666</v>
+        <v>0.008799956710499999</v>
       </c>
       <c r="R8">
-        <v>0.119588611156</v>
+        <v>0.03519982684199999</v>
       </c>
       <c r="S8">
-        <v>7.896063954581835E-07</v>
+        <v>2.628249749661475E-07</v>
       </c>
       <c r="T8">
-        <v>5.264662880237783E-07</v>
+        <v>1.168893326055295E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H9">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I9">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J9">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P9">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q9">
-        <v>0.008129161801111113</v>
+        <v>0.004501019155</v>
       </c>
       <c r="R9">
-        <v>0.07316245621</v>
+        <v>0.02700611493</v>
       </c>
       <c r="S9">
-        <v>3.220459583479152E-07</v>
+        <v>1.344302347900767E-07</v>
       </c>
       <c r="T9">
-        <v>3.220839039039917E-07</v>
+        <v>8.968017838852999E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H10">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I10">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J10">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N10">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O10">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P10">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q10">
-        <v>32.68290067036911</v>
+        <v>42.864787096592</v>
       </c>
       <c r="R10">
-        <v>294.146106033322</v>
+        <v>257.188722579552</v>
       </c>
       <c r="S10">
-        <v>0.001294770152876045</v>
+        <v>0.001280226365448896</v>
       </c>
       <c r="T10">
-        <v>0.001294922711143487</v>
+        <v>0.0008540558529146562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H11">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I11">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J11">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N11">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O11">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P11">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q11">
-        <v>0.006740028091333334</v>
+        <v>0.013535367474</v>
       </c>
       <c r="R11">
-        <v>0.04044016854800001</v>
+        <v>0.054141469896</v>
       </c>
       <c r="S11">
-        <v>2.670138519900823E-07</v>
+        <v>4.04255695174838E-07</v>
       </c>
       <c r="T11">
-        <v>1.780302088695453E-07</v>
+        <v>1.797895288187795E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H12">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I12">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J12">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N12">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O12">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P12">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q12">
-        <v>0.07762739162533333</v>
+        <v>3.523215502261</v>
       </c>
       <c r="R12">
-        <v>0.6986465246279999</v>
+        <v>21.139293013566</v>
       </c>
       <c r="S12">
-        <v>3.075297102170165E-06</v>
+        <v>0.0001052265433393794</v>
       </c>
       <c r="T12">
-        <v>3.075659453740236E-06</v>
+        <v>7.019801157544748E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H13">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I13">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J13">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N13">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O13">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P13">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q13">
-        <v>42.66760562888756</v>
+        <v>6.755348493564001</v>
       </c>
       <c r="R13">
-        <v>384.008450659988</v>
+        <v>40.532090961384</v>
       </c>
       <c r="S13">
-        <v>0.001690325556478388</v>
+        <v>0.0002017594355424598</v>
       </c>
       <c r="T13">
-        <v>0.001690524721664376</v>
+        <v>0.0001345963740915266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H14">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I14">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J14">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N14">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O14">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P14">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q14">
-        <v>4.200224928937333</v>
+        <v>0.5907341983169999</v>
       </c>
       <c r="R14">
-        <v>25.20134957362399</v>
+        <v>3.544405189902</v>
       </c>
       <c r="S14">
-        <v>0.0001663966710973254</v>
+        <v>1.764323461944521E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001109441846925387</v>
+        <v>1.177003395473748E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H15">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I15">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J15">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.101555</v>
       </c>
       <c r="O15">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P15">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q15">
-        <v>1.713088280815555</v>
+        <v>0.30214988887</v>
       </c>
       <c r="R15">
-        <v>15.41779452734</v>
+        <v>2.71934899983</v>
       </c>
       <c r="S15">
-        <v>6.786593385980108E-05</v>
+        <v>9.024196321730533E-06</v>
       </c>
       <c r="T15">
-        <v>6.787393026693555E-05</v>
+        <v>9.030240152555887E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H16">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I16">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J16">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N16">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O16">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P16">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q16">
-        <v>6887.388329977087</v>
+        <v>2877.479568884768</v>
       </c>
       <c r="R16">
-        <v>61986.49496979379</v>
+        <v>25897.31611996291</v>
       </c>
       <c r="S16">
-        <v>0.2728516948621382</v>
+        <v>0.08594059272534423</v>
       </c>
       <c r="T16">
-        <v>0.2728838440291114</v>
+        <v>0.08599815025013031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H17">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I17">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J17">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N17">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O17">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P17">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q17">
-        <v>1.420351005198667</v>
+        <v>0.9086186121959999</v>
       </c>
       <c r="R17">
-        <v>8.522106031191999</v>
+        <v>5.451711673176</v>
       </c>
       <c r="S17">
-        <v>5.626881489763291E-05</v>
+        <v>2.713736804173674E-05</v>
       </c>
       <c r="T17">
-        <v>3.751696323769543E-05</v>
+        <v>1.810369527940297E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H18">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I18">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J18">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N18">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O18">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P18">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q18">
-        <v>16.35870685283466</v>
+        <v>236.510695869994</v>
       </c>
       <c r="R18">
-        <v>147.228361675512</v>
+        <v>2128.596262829946</v>
       </c>
       <c r="S18">
-        <v>0.0006480687129432792</v>
+        <v>0.007063775398700278</v>
       </c>
       <c r="T18">
-        <v>0.0006481450726275136</v>
+        <v>0.007068506264693877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H19">
+        <v>26.777106</v>
+      </c>
+      <c r="I19">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J19">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.806228</v>
+      </c>
+      <c r="N19">
+        <v>152.418684</v>
+      </c>
+      <c r="O19">
+        <v>0.1270514327549857</v>
+      </c>
+      <c r="P19">
+        <v>0.1270692255099267</v>
+      </c>
+      <c r="Q19">
+        <v>453.481250872056</v>
+      </c>
+      <c r="R19">
+        <v>4081.331257848504</v>
+      </c>
+      <c r="S19">
+        <v>0.01354395280897847</v>
+      </c>
+      <c r="T19">
+        <v>0.0135530236842748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H20">
+        <v>95.900486</v>
+      </c>
+      <c r="I20">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J20">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.06618349999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.132367</v>
+      </c>
+      <c r="O20">
+        <v>0.0001655054671592544</v>
+      </c>
+      <c r="P20">
+        <v>0.0001103524301067477</v>
+      </c>
+      <c r="Q20">
+        <v>2.115676605060333</v>
+      </c>
+      <c r="R20">
+        <v>12.694059630362</v>
+      </c>
+      <c r="S20">
+        <v>6.318811206172992E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.215362095126435E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H21">
+        <v>95.900486</v>
+      </c>
+      <c r="I21">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J21">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.101555</v>
+      </c>
+      <c r="O21">
+        <v>8.465306165110682E-05</v>
+      </c>
+      <c r="P21">
+        <v>8.466491678054775E-05</v>
+      </c>
+      <c r="Q21">
+        <v>1.082130428414445</v>
+      </c>
+      <c r="R21">
+        <v>9.73917385573</v>
+      </c>
+      <c r="S21">
+        <v>3.231957975642964E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.234122534850569E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H22">
+        <v>95.900486</v>
+      </c>
+      <c r="I22">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J22">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>322.3813173333334</v>
+      </c>
+      <c r="N22">
+        <v>967.1439520000001</v>
+      </c>
+      <c r="O22">
+        <v>0.8061808536669893</v>
+      </c>
+      <c r="P22">
+        <v>0.8062937542306147</v>
+      </c>
+      <c r="Q22">
+        <v>10305.50833652896</v>
+      </c>
+      <c r="R22">
+        <v>92749.57502876068</v>
+      </c>
+      <c r="S22">
+        <v>0.3077907153031615</v>
+      </c>
+      <c r="T22">
+        <v>0.3079968538828848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H23">
+        <v>95.900486</v>
+      </c>
+      <c r="I23">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J23">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.101798</v>
+      </c>
+      <c r="N23">
+        <v>0.203596</v>
+      </c>
+      <c r="O23">
+        <v>0.0002545668564805093</v>
+      </c>
+      <c r="P23">
+        <v>0.0001697350046462744</v>
+      </c>
+      <c r="Q23">
+        <v>3.254159224609333</v>
+      </c>
+      <c r="R23">
+        <v>19.524955347656</v>
+      </c>
+      <c r="S23">
+        <v>9.719074137300058E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.483722235295517E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>50.60572933333333</v>
-      </c>
-      <c r="H19">
-        <v>151.817188</v>
-      </c>
-      <c r="I19">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="J19">
-        <v>0.6299988405266996</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>177.6775513333333</v>
-      </c>
-      <c r="N19">
-        <v>533.032654</v>
-      </c>
-      <c r="O19">
-        <v>0.5654114303352707</v>
-      </c>
-      <c r="P19">
-        <v>0.5654780507991516</v>
-      </c>
-      <c r="Q19">
-        <v>8991.502071384104</v>
-      </c>
-      <c r="R19">
-        <v>80923.51864245694</v>
-      </c>
-      <c r="S19">
-        <v>0.3562085455317633</v>
-      </c>
-      <c r="T19">
-        <v>0.3562505163467636</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H24">
+        <v>95.900486</v>
+      </c>
+      <c r="I24">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J24">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.49771366666667</v>
+      </c>
+      <c r="N24">
+        <v>79.49314100000001</v>
+      </c>
+      <c r="O24">
+        <v>0.06626298819273425</v>
+      </c>
+      <c r="P24">
+        <v>0.06627226790792524</v>
+      </c>
+      <c r="Q24">
+        <v>847.0478728407253</v>
+      </c>
+      <c r="R24">
+        <v>7623.430855566527</v>
+      </c>
+      <c r="S24">
+        <v>0.02529845808319243</v>
+      </c>
+      <c r="T24">
+        <v>0.02531540137601828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H25">
+        <v>95.900486</v>
+      </c>
+      <c r="I25">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J25">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>50.806228</v>
+      </c>
+      <c r="N25">
+        <v>152.418684</v>
+      </c>
+      <c r="O25">
+        <v>0.1270514327549857</v>
+      </c>
+      <c r="P25">
+        <v>0.1270692255099267</v>
+      </c>
+      <c r="Q25">
+        <v>1624.113985675603</v>
+      </c>
+      <c r="R25">
+        <v>14617.02587108042</v>
+      </c>
+      <c r="S25">
+        <v>0.04850679743890549</v>
+      </c>
+      <c r="T25">
+        <v>0.04853928419641256</v>
       </c>
     </row>
   </sheetData>
